--- a/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value661.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value661.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>1.807879715569151</v>
+        <v>1.338045954704285</v>
       </c>
       <c r="B1">
-        <v>2.117857413599032</v>
+        <v>2.371382474899292</v>
       </c>
       <c r="C1">
-        <v>2.212091067696576</v>
+        <v>2.907703638076782</v>
       </c>
       <c r="D1">
-        <v>2.700094287190932</v>
+        <v>3.348934412002563</v>
       </c>
       <c r="E1">
-        <v>2.765637370999823</v>
+        <v>1.720772624015808</v>
       </c>
     </row>
   </sheetData>
